--- a/data/trans_dic/P26_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P26_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha aumentado el consumo de medicación respecto al último mes</t>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,28</t>
+          <t>0,84; 2,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,91</t>
+          <t>1,73; 4,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 15,74</t>
+          <t>2,54; 5,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,38; 22,23</t>
+          <t>6,13; 10,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 15,56</t>
+          <t>4,14; 19,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,96</t>
+          <t>4,17; 7,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,81</t>
+          <t>5,72; 9,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,39; 21,85</t>
+          <t>2,35; 4,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 30,05</t>
+          <t>4,72; 8,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 25,54</t>
+          <t>7,51; 11,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,66</t>
+          <t>7,92; 14,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,84</t>
+          <t>6,67; 11,97</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,92</t>
+          <t>10,32; 15,22</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 24,39</t>
+          <t>8,14; 12,57</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,95</t>
+          <t>1,84; 3,39</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 6,18</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 8,16</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 11,33</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 13,77</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 11,18</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 10,35</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 22,44</t>
+          <t>1,01; 6,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,57</t>
+          <t>0,97; 3,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 23,42</t>
+          <t>2,95; 7,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 14,96</t>
+          <t>1,93; 5,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 15,07</t>
+          <t>2,53; 6,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 15,12</t>
+          <t>1,63; 6,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 18,62</t>
+          <t>3,67; 10,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,28; 19,1</t>
+          <t>1,95; 4,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 23,18</t>
+          <t>4,84; 9,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,94; 21,75</t>
+          <t>5,69; 9,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 15,4</t>
+          <t>8,02; 12,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,21</t>
+          <t>8,25; 14,37</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 19,15</t>
+          <t>4,8; 12,79</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 17,83</t>
+          <t>5,36; 12,54</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 17,1</t>
+          <t>1,79; 4,6</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 6,05</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 7,87</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 8,23</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 9,46</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 8,07</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 9,81</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,29%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,09</t>
+          <t>0,0; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 17,73</t>
+          <t>1,31; 9,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,93</t>
+          <t>0,64; 5,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 21,83</t>
+          <t>2,86; 11,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,7; 6,91</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 20,51</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 14,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 21,61</t>
+          <t>1,57; 7,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 23,82</t>
+          <t>1,72; 9,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>4,82; 13,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 15,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 19,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 13,3</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 12,17</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>5,84; 14,97</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 19,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 4,3</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 7,53</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 8,16</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 11,41</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 11,07</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,08</t>
+          <t>1,26; 3,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,92</t>
+          <t>1,86; 3,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,92</t>
+          <t>2,93; 5,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 16,44</t>
+          <t>4,63; 7,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,86</t>
+          <t>3,79; 11,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,19</t>
+          <t>3,93; 6,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 14,11</t>
+          <t>5,44; 8,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 18,67</t>
+          <t>2,5; 4,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 24,06</t>
+          <t>5,15; 7,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 23,17</t>
+          <t>7,34; 9,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,87</t>
+          <t>8,47; 12,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,8</t>
+          <t>8,12; 12,1</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,89</t>
+          <t>9,77; 13,88</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 19,63</t>
+          <t>7,95; 11,57</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,33</t>
+          <t>2,02; 3,38</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 5,4</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 7,38</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 9,15</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 10,68</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 9,94</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 9,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27173</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47639</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>62314</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>131098</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>130207</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13164</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16912</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>60495</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>115091</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>171849</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>177951</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>163475</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>29906</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>23694</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>87669</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>162730</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>234164</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>309049</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>293682</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>43069</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>40606</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13783; 44895</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28544; 72979</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41841; 93182</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>100790; 171142</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>67713; 321410</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9555; 17735</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12996; 22021</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42102; 86170</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>85172; 150259</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>137341; 207925</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>143929; 257041</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>120113; 215697</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24479; 36096</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>19183; 29604</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>63298; 116482</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>127055; 213105</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>194776; 283625</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>259272; 392366</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>216284; 473486</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>36541; 52109</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>34194; 47895</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32603</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26599</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65166</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44260</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59020</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4532</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42945</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>96463</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>102072</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>138141</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>149830</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5004</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>75547</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>123062</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>167238</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>182401</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>208851</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>7346</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>10087</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13972; 86107</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13301; 45412</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40638; 106878</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26636; 70494</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>34962; 93048</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1180; 4405</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2677; 7450</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27555; 67313</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>67399; 134106</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>78031; 131169</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>110802; 175146</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>114851; 200115</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3098; 8255</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3589; 8393</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>50160; 128699</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>89762; 167181</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>131763; 216442</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>148562; 227187</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>165401; 262382</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>4872; 11047</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>7159; 13732</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5328</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16373</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8885</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25132</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9427</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14867</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17780</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33826</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>40511</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>47337</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>20195</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>34153</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>42712</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>65643</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>56764</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16929</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5524; 38621</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2696; 24244</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12084; 48067</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2908; 28805</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6460; 29100</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7015; 40263</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19597; 54263</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22291; 63091</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26591; 79325</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8992; 35880</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>18256; 62616</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>26289; 67653</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>42987; 95016</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>33061; 91773</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>65104</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>90611</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>136366</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>200490</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>198654</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15506</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21444</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>118307</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>229334</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>307747</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>356603</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>360642</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>34910</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>29249</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>183411</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>319945</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>444113</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>557093</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>559297</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>50416</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>50693</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43372; 125900</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64107; 127646</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>101026; 193359</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>159615; 252206</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>130292; 406966</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11836; 20435</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16345; 26604</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>90179; 154987</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>185701; 285856</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>264869; 355776</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>305748; 433357</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>292859; 436407</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>29465; 41887</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24054; 35008</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>142999; 238838</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>266538; 380245</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>386130; 520559</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>483773; 645368</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>474264; 752412</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>43567; 59911</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>43373; 58483</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
